--- a/input/calorimetry/test_4.xlsx
+++ b/input/calorimetry/test_4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KEVreplica\input\calorimetry\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C055BA0D-9908-42C4-AFF3-BAD2C64533F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input_stoich_coefficients" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="targets" sheetId="6" r:id="rId6"/>
     <sheet name="enthalpies" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,17 +37,317 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="111">
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>HL</t>
+  </si>
+  <si>
+    <t>H2L</t>
+  </si>
+  <si>
+    <t>HOH</t>
+  </si>
+  <si>
+    <t>HOHD</t>
+  </si>
+  <si>
     <t>lg_k</t>
   </si>
   <si>
     <t>tot</t>
   </si>
   <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>0.001009623</t>
+  </si>
+  <si>
+    <t>0.000996</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>0.001056023</t>
+  </si>
+  <si>
+    <t>0.000988</t>
+  </si>
+  <si>
+    <t>0.001079035</t>
+  </si>
+  <si>
+    <t>0.000984</t>
+  </si>
+  <si>
+    <t>0.001101954</t>
+  </si>
+  <si>
+    <t>0.00098</t>
+  </si>
+  <si>
+    <t>0.00112478</t>
+  </si>
+  <si>
+    <t>0.000976</t>
+  </si>
+  <si>
+    <t>0.001147514</t>
+  </si>
+  <si>
+    <t>0.000972</t>
+  </si>
+  <si>
+    <t>0.001170156</t>
+  </si>
+  <si>
+    <t>0.000968</t>
+  </si>
+  <si>
+    <t>0.001192706</t>
+  </si>
+  <si>
+    <t>0.000964</t>
+  </si>
+  <si>
+    <t>0.001215164</t>
+  </si>
+  <si>
+    <t>0.00096</t>
+  </si>
+  <si>
+    <t>0.001237532</t>
+  </si>
+  <si>
+    <t>0.000956</t>
+  </si>
+  <si>
+    <t>0.001259809</t>
+  </si>
+  <si>
+    <t>0.000952</t>
+  </si>
+  <si>
+    <t>0.001281996</t>
+  </si>
+  <si>
+    <t>0.000949</t>
+  </si>
+  <si>
+    <t>0.001304093</t>
+  </si>
+  <si>
+    <t>0.000945</t>
+  </si>
+  <si>
+    <t>0.001326101</t>
+  </si>
+  <si>
+    <t>0.000941</t>
+  </si>
+  <si>
+    <t>0.00134802</t>
+  </si>
+  <si>
+    <t>0.000937</t>
+  </si>
+  <si>
+    <t>0.00136985</t>
+  </si>
+  <si>
+    <t>0.000933</t>
+  </si>
+  <si>
+    <t>0.001391591</t>
+  </si>
+  <si>
+    <t>0.00093</t>
+  </si>
+  <si>
+    <t>0.001413245</t>
+  </si>
+  <si>
+    <t>0.000926</t>
+  </si>
+  <si>
+    <t>0.00143481</t>
+  </si>
+  <si>
+    <t>0.000922</t>
+  </si>
+  <si>
+    <t>0.001456289</t>
+  </si>
+  <si>
+    <t>0.000918</t>
+  </si>
+  <si>
+    <t>0.00147768</t>
+  </si>
+  <si>
+    <t>0.000915</t>
+  </si>
+  <si>
+    <t>0.001498985</t>
+  </si>
+  <si>
+    <t>0.000911</t>
+  </si>
+  <si>
+    <t>0.001520204</t>
+  </si>
+  <si>
+    <t>0.000907</t>
+  </si>
+  <si>
+    <t>0.001541337</t>
+  </si>
+  <si>
+    <t>0.000904</t>
+  </si>
+  <si>
+    <t>0.001562384</t>
+  </si>
+  <si>
+    <t>0.0009</t>
+  </si>
+  <si>
+    <t>0.001583346</t>
+  </si>
+  <si>
+    <t>0.000896</t>
+  </si>
+  <si>
+    <t>0.001604223</t>
+  </si>
+  <si>
+    <t>0.000893</t>
+  </si>
+  <si>
+    <t>0.001625016</t>
+  </si>
+  <si>
+    <t>0.000889</t>
+  </si>
+  <si>
+    <t>0.001645724</t>
+  </si>
+  <si>
+    <t>0.000885</t>
+  </si>
+  <si>
+    <t>0.001666349</t>
+  </si>
+  <si>
+    <t>0.000882</t>
+  </si>
+  <si>
+    <t>0.00168689</t>
+  </si>
+  <si>
+    <t>0.000878</t>
+  </si>
+  <si>
+    <t>0.001707348</t>
+  </si>
+  <si>
+    <t>0.000875</t>
+  </si>
+  <si>
+    <t>0.001727723</t>
+  </si>
+  <si>
+    <t>0.000871</t>
+  </si>
+  <si>
+    <t>0.001748016</t>
+  </si>
+  <si>
+    <t>0.000868</t>
+  </si>
+  <si>
+    <t>0.001768226</t>
+  </si>
+  <si>
+    <t>0.000864</t>
+  </si>
+  <si>
+    <t>0.001788355</t>
+  </si>
+  <si>
+    <t>0.000861</t>
+  </si>
+  <si>
+    <t>0.001808402</t>
+  </si>
+  <si>
+    <t>0.000857</t>
+  </si>
+  <si>
+    <t>0.001828368</t>
+  </si>
+  <si>
+    <t>0.000854</t>
+  </si>
+  <si>
+    <t>0.001848253</t>
+  </si>
+  <si>
+    <t>0.00085</t>
+  </si>
+  <si>
+    <t>0.001868058</t>
+  </si>
+  <si>
+    <t>0.000847</t>
+  </si>
+  <si>
+    <t>0.001887782</t>
+  </si>
+  <si>
+    <t>0.000843</t>
+  </si>
+  <si>
+    <t>0.001907427</t>
+  </si>
+  <si>
+    <t>0.00084</t>
+  </si>
+  <si>
+    <t>0.001926992</t>
+  </si>
+  <si>
+    <t>0.000837</t>
+  </si>
+  <si>
+    <t>0.001946478</t>
+  </si>
+  <si>
+    <t>0.000833</t>
+  </si>
+  <si>
+    <t>0.001965885</t>
+  </si>
+  <si>
+    <t>0.00083</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
@@ -69,46 +370,16 @@
   </si>
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>HL</t>
-  </si>
-  <si>
-    <t>H2L</t>
-  </si>
-  <si>
-    <t>HOH</t>
-  </si>
-  <si>
-    <t>HOHD</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,9 +409,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -420,30 +692,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -454,10 +726,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -468,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -482,10 +754,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>-1</v>
       </c>
@@ -496,7 +768,7 @@
         <v>-1</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -505,36 +777,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5">
         <v>-14</v>
       </c>
@@ -545,917 +817,1557 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AA64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:W1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>9.9799999999999997E-4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>9.9799999999999997E-4</v>
-      </c>
-      <c r="C3">
-        <v>9.9799999999999997E-4</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1.0555350701402805E-3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>9.8800000000000016E-4</v>
-      </c>
-      <c r="C4">
-        <v>9.8800000000000016E-4</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1.0782275449101797E-3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>9.8405588822355304E-4</v>
-      </c>
-      <c r="C5">
-        <v>9.8405588822355304E-4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1.1007395626242546E-3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>9.8014314115308157E-4</v>
-      </c>
-      <c r="C6">
-        <v>9.8014314115308157E-4</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1.1230732673267326E-3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>9.7626138613861389E-4</v>
-      </c>
-      <c r="C7">
-        <v>9.7626138613861389E-4</v>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1.1452307692307693E-3</v>
-      </c>
-      <c r="B8" s="1">
-        <v>9.7241025641025647E-4</v>
-      </c>
-      <c r="C8">
-        <v>9.7241025641025647E-4</v>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1.1672141453831042E-3</v>
-      </c>
-      <c r="B9" s="1">
-        <v>9.6858939096267191E-4</v>
-      </c>
-      <c r="C9">
-        <v>9.6858939096267191E-4</v>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1.1890254403131115E-3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9.6479843444227014E-4</v>
-      </c>
-      <c r="C10">
-        <v>9.6479843444227014E-4</v>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1.2106666666666667E-3</v>
-      </c>
-      <c r="B11" s="1">
-        <v>9.6103703703703705E-4</v>
-      </c>
-      <c r="C11">
-        <v>9.6103703703703705E-4</v>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>1.2321398058252428E-3</v>
-      </c>
-      <c r="B12" s="1">
-        <v>9.5730485436893212E-4</v>
-      </c>
-      <c r="C12">
-        <v>9.5730485436893212E-4</v>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1.2534468085106383E-3</v>
-      </c>
-      <c r="B13" s="1">
-        <v>9.5360154738878143E-4</v>
-      </c>
-      <c r="C13">
-        <v>9.5360154738878143E-4</v>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1.2745895953757227E-3</v>
-      </c>
-      <c r="B14">
-        <v>9.4992678227360313E-4</v>
-      </c>
-      <c r="C14">
-        <v>9.4992678227360313E-4</v>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1.2955700575815739E-3</v>
-      </c>
-      <c r="B15">
-        <v>9.4628023032629566E-4</v>
-      </c>
-      <c r="C15">
-        <v>9.4628023032629566E-4</v>
+        <v>13</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1.3163900573613767E-3</v>
-      </c>
-      <c r="B16">
-        <v>9.4266156787762906E-4</v>
-      </c>
-      <c r="C16">
-        <v>9.4266156787762906E-4</v>
+        <v>13</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1.3370514285714287E-3</v>
-      </c>
-      <c r="B17">
-        <v>9.3907047619047623E-4</v>
-      </c>
-      <c r="C17">
-        <v>9.3907047619047623E-4</v>
+        <v>13</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1.3575559772296014E-3</v>
-      </c>
-      <c r="B18">
-        <v>9.3550664136622392E-4</v>
-      </c>
-      <c r="C18">
-        <v>9.3550664136622392E-4</v>
+        <v>13</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1.3779054820415879E-3</v>
-      </c>
-      <c r="B19">
-        <v>9.3196975425330819E-4</v>
-      </c>
-      <c r="C19">
-        <v>9.3196975425330819E-4</v>
+        <v>13</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1.3981016949152541E-3</v>
-      </c>
-      <c r="B20">
-        <v>9.2845951035781544E-4</v>
-      </c>
-      <c r="C20">
-        <v>9.2845951035781544E-4</v>
+        <v>13</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1.4181463414634147E-3</v>
-      </c>
-      <c r="B21">
-        <v>9.2497560975609758E-4</v>
-      </c>
-      <c r="C21">
-        <v>9.2497560975609758E-4</v>
+        <v>13</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1.4380411214953272E-3</v>
-      </c>
-      <c r="B22">
-        <v>9.2151775700934579E-4</v>
-      </c>
-      <c r="C22">
-        <v>9.2151775700934579E-4</v>
+        <v>13</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1.4577877094972067E-3</v>
-      </c>
-      <c r="B23">
-        <v>9.1808566108007449E-4</v>
-      </c>
-      <c r="C23">
-        <v>9.1808566108007449E-4</v>
+        <v>13</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1.4773877551020407E-3</v>
-      </c>
-      <c r="B24">
-        <v>9.1467903525046385E-4</v>
-      </c>
-      <c r="C24">
-        <v>9.1467903525046385E-4</v>
+        <v>13</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1.4968428835489833E-3</v>
-      </c>
-      <c r="B25">
-        <v>9.1129759704251388E-4</v>
-      </c>
-      <c r="C25">
-        <v>9.1129759704251388E-4</v>
+        <v>13</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1.5161546961325967E-3</v>
-      </c>
-      <c r="B26">
-        <v>9.0794106813996318E-4</v>
-      </c>
-      <c r="C26">
-        <v>9.0794106813996318E-4</v>
+        <v>13</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1.5353247706422018E-3</v>
-      </c>
-      <c r="B27">
-        <v>9.0460917431192656E-4</v>
-      </c>
-      <c r="C27">
-        <v>9.0460917431192656E-4</v>
+        <v>13</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1.5543546617915905E-3</v>
-      </c>
-      <c r="B28">
-        <v>9.013016453382084E-4</v>
-      </c>
-      <c r="C28">
-        <v>9.013016453382084E-4</v>
+        <v>13</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1.5732459016393442E-3</v>
-      </c>
-      <c r="B29">
-        <v>8.9801821493624772E-4</v>
-      </c>
-      <c r="C29">
-        <v>8.9801821493624772E-4</v>
+        <v>13</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1.5919999999999999E-3</v>
-      </c>
-      <c r="B30">
-        <v>8.9475862068965511E-4</v>
-      </c>
-      <c r="C30">
-        <v>8.9475862068965511E-4</v>
+        <v>13</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1.6106184448462931E-3</v>
-      </c>
-      <c r="B31">
-        <v>8.9152260397830038E-4</v>
-      </c>
-      <c r="C31">
-        <v>8.9152260397830038E-4</v>
+        <v>13</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1.629102702702703E-3</v>
-      </c>
-      <c r="B32">
-        <v>8.8830990990991011E-4</v>
-      </c>
-      <c r="C32">
-        <v>8.8830990990991011E-4</v>
+        <v>13</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1.647454219030521E-3</v>
-      </c>
-      <c r="B33">
-        <v>8.8512028725314194E-4</v>
-      </c>
-      <c r="C33">
-        <v>8.8512028725314194E-4</v>
+        <v>13</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1.6656744186046514E-3</v>
-      </c>
-      <c r="B34">
-        <v>8.8195348837209319E-4</v>
-      </c>
-      <c r="C34">
-        <v>8.8195348837209319E-4</v>
+        <v>13</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1.6837647058823531E-3</v>
-      </c>
-      <c r="B35">
-        <v>8.7880926916221046E-4</v>
-      </c>
-      <c r="C35">
-        <v>8.7880926916221046E-4</v>
+        <v>13</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1.7017264653641211E-3</v>
-      </c>
-      <c r="B36">
-        <v>8.7568738898756676E-4</v>
-      </c>
-      <c r="C36">
-        <v>8.7568738898756676E-4</v>
+        <v>13</v>
+      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1.7195610619469028E-3</v>
-      </c>
-      <c r="B37">
-        <v>8.7258761061946913E-4</v>
-      </c>
-      <c r="C37">
-        <v>8.7258761061946913E-4</v>
+        <v>13</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1.7372698412698416E-3</v>
-      </c>
-      <c r="B38">
-        <v>8.6950970017636694E-4</v>
-      </c>
-      <c r="C38">
-        <v>8.6950970017636694E-4</v>
+        <v>13</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1.7548541300527242E-3</v>
-      </c>
-      <c r="B39">
-        <v>8.6645342706502646E-4</v>
-      </c>
-      <c r="C39">
-        <v>8.6645342706502646E-4</v>
+        <v>13</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1.7723152364273209E-3</v>
-      </c>
-      <c r="B40">
-        <v>8.6341856392294233E-4</v>
-      </c>
-      <c r="C40">
-        <v>8.6341856392294233E-4</v>
+        <v>13</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1.7896544502617802E-3</v>
-      </c>
-      <c r="B41">
-        <v>8.6040488656195476E-4</v>
-      </c>
-      <c r="C41">
-        <v>8.6040488656195476E-4</v>
+        <v>13</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1.8068730434782612E-3</v>
-      </c>
-      <c r="B42">
-        <v>8.5741217391304358E-4</v>
-      </c>
-      <c r="C42">
-        <v>8.5741217391304358E-4</v>
+        <v>13</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1.8239722703639518E-3</v>
-      </c>
-      <c r="B43">
-        <v>8.5444020797227052E-4</v>
-      </c>
-      <c r="C43">
-        <v>8.5444020797227052E-4</v>
+        <v>13</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1.8409533678756479E-3</v>
-      </c>
-      <c r="B44">
-        <v>8.5148877374784126E-4</v>
-      </c>
-      <c r="C44">
-        <v>8.5148877374784126E-4</v>
+        <v>13</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1.8578175559380379E-3</v>
-      </c>
-      <c r="B45">
-        <v>8.4855765920826176E-4</v>
-      </c>
-      <c r="C45">
-        <v>8.4855765920826176E-4</v>
+        <v>13</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1.874566037735849E-3</v>
-      </c>
-      <c r="B46">
-        <v>8.4564665523156099E-4</v>
-      </c>
-      <c r="C46">
-        <v>8.4564665523156099E-4</v>
+        <v>13</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1.8912000000000002E-3</v>
-      </c>
-      <c r="B47">
-        <v>8.4275555555555571E-4</v>
-      </c>
-      <c r="C47">
-        <v>8.4275555555555571E-4</v>
+        <v>13</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48">
-        <v>1.047E-3</v>
+        <v>1.0854879999999999E-3</v>
       </c>
       <c r="B48">
-        <v>1.047E-3</v>
+        <v>1.0449999999999999E-3</v>
       </c>
       <c r="C48">
-        <v>9.9999999999999998E-17</v>
+        <v>9.9599999999999992E-4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="T48" s="2"/>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49">
-        <v>1.1997148594377509E-3</v>
+        <v>1.2391279999999999E-3</v>
       </c>
       <c r="B49">
-        <v>1.0385903614457831E-3</v>
+        <v>1.036E-3</v>
       </c>
       <c r="C49">
-        <v>9.9999999999999998E-17</v>
+        <v>9.8799999999999995E-4</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50">
-        <v>1.4795410484668644E-3</v>
+        <v>1.52487E-3</v>
       </c>
       <c r="B50">
-        <v>1.0231810089020772E-3</v>
+        <v>1.021E-3</v>
       </c>
       <c r="C50">
-        <v>9.9999999999999998E-17</v>
+        <v>9.8400000000000007E-4</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="T50" s="2"/>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51">
-        <v>1.751185185185185E-3</v>
+        <v>1.8062729999999999E-3</v>
       </c>
       <c r="B51">
-        <v>1.0082222222222222E-3</v>
+        <v>1.005E-3</v>
       </c>
       <c r="C51">
-        <v>9.9999999999999998E-17</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="K51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="T51" s="2"/>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52">
-        <v>2.0150009606147937E-3</v>
+        <v>2.083405E-3</v>
       </c>
       <c r="B52">
-        <v>9.9369452449567719E-4</v>
+        <v>9.8999999999999999E-4</v>
       </c>
       <c r="C52">
-        <v>9.9999999999999998E-17</v>
+        <v>9.7599999999999998E-4</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="K52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="T52" s="2"/>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53">
-        <v>2.2713219696969696E-3</v>
+        <v>2.3563289999999999E-3</v>
       </c>
       <c r="B53">
-        <v>9.7957954545454542E-4</v>
+        <v>9.7499999999999996E-4</v>
       </c>
       <c r="C53">
-        <v>9.9999999999999998E-17</v>
+        <v>9.7199999999999999E-4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="T53" s="2"/>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54">
-        <v>2.520463118580766E-3</v>
+        <v>2.625109E-3</v>
       </c>
       <c r="B54">
-        <v>9.6585994397759098E-4</v>
+        <v>9.6000000000000002E-4</v>
       </c>
       <c r="C54">
-        <v>9.9999999999999998E-17</v>
+        <v>9.68E-4</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="T54" s="2"/>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55">
-        <v>2.7627219152854513E-3</v>
+        <v>2.8898090000000001E-3</v>
       </c>
       <c r="B55">
-        <v>9.5251933701657446E-4</v>
+        <v>9.4600000000000001E-4</v>
       </c>
       <c r="C55">
-        <v>9.9999999999999998E-17</v>
+        <v>9.6400000000000001E-4</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="T55" s="2"/>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56">
-        <v>2.9983796548592192E-3</v>
+        <v>3.1504900000000001E-3</v>
       </c>
       <c r="B56">
-        <v>9.3954223433242502E-4</v>
+        <v>9.3099999999999997E-4</v>
       </c>
       <c r="C56">
-        <v>9.9999999999999998E-17</v>
+        <v>9.6000000000000002E-4</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="T56" s="2"/>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57">
-        <v>3.2277025089605732E-3</v>
+        <v>3.4072130000000001E-3</v>
       </c>
       <c r="B57">
-        <v>9.2691397849462346E-4</v>
+        <v>9.1699999999999995E-4</v>
       </c>
       <c r="C57">
-        <v>9.9999999999999998E-17</v>
+        <v>9.5600000000000004E-4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="T57" s="2"/>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58">
-        <v>3.4509425287356319E-3</v>
+        <v>3.6600389999999999E-3</v>
       </c>
       <c r="B58">
-        <v>9.1462068965517237E-4</v>
+        <v>9.0300000000000005E-4</v>
       </c>
       <c r="C58">
-        <v>9.9999999999999998E-17</v>
+        <v>9.5200000000000005E-4</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="T58" s="2"/>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59">
-        <v>3.668338568935428E-3</v>
+        <v>3.9090260000000003E-3</v>
       </c>
       <c r="B59">
-        <v>9.026492146596858E-4</v>
+        <v>8.8900000000000003E-4</v>
       </c>
       <c r="C59">
-        <v>9.9999999999999998E-17</v>
+        <v>9.4899999999999997E-4</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="T59" s="2"/>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60">
-        <v>3.8801171403962101E-3</v>
+        <v>4.1542339999999997E-3</v>
       </c>
       <c r="B60">
-        <v>8.9098708010335904E-4</v>
+        <v>8.7600000000000004E-4</v>
       </c>
       <c r="C60">
-        <v>9.9999999999999998E-17</v>
+        <v>9.4499999999999998E-4</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="T60" s="2"/>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61">
-        <v>4.086493197278912E-3</v>
+        <v>4.3957179999999998E-3</v>
       </c>
       <c r="B61">
-        <v>8.7962244897959183E-4</v>
+        <v>8.6300000000000005E-4</v>
       </c>
       <c r="C61">
-        <v>9.9999999999999998E-17</v>
+        <v>9.41E-4</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="T61" s="2"/>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62">
-        <v>4.2876708648194794E-3</v>
+        <v>4.6335359999999997E-3</v>
       </c>
       <c r="B62">
-        <v>8.6854408060453385E-4</v>
+        <v>8.4900000000000004E-4</v>
       </c>
       <c r="C62">
-        <v>9.9999999999999998E-17</v>
+        <v>9.3700000000000001E-4</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="T62" s="2"/>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63">
-        <v>4.4838441127694863E-3</v>
+        <v>4.8677429999999999E-3</v>
       </c>
       <c r="B63">
-        <v>8.5774129353233827E-4</v>
+        <v>8.3699999999999996E-4</v>
       </c>
       <c r="C63">
-        <v>9.9999999999999998E-17</v>
+        <v>9.3300000000000002E-4</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64">
-        <v>4.6751973791973791E-3</v>
+        <v>5.0983950000000004E-3</v>
       </c>
       <c r="B64">
-        <v>8.4720393120393106E-4</v>
+        <v>8.2399999999999997E-4</v>
       </c>
       <c r="C64">
-        <v>9.9999999999999998E-17</v>
+        <v>9.3000000000000005E-4</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1464,18 +2376,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1484,18 +2396,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="AQ17" workbookViewId="0">
       <selection activeCell="BI17" sqref="BI17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -1678,9 +2590,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>0.998</v>
@@ -1863,9 +2775,9 @@
         <v>1.2210000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>3.19E-4</v>
@@ -2048,9 +2960,9 @@
         <v>3.8000000000000002E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2233,9 +3145,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>1.0000000000000001E-9</v>
@@ -2425,24 +3337,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2451,34 +3363,34 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>-55.81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>55.81</v>

--- a/input/calorimetry/test_4.xlsx
+++ b/input/calorimetry/test_4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="input_stoich_coefficients" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
-    <numFmt numFmtId="166" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -142,7 +142,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -427,7 +427,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,18 +549,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:B64"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -570,23 +570,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2">
-        <v>1.047E-3</v>
-      </c>
-      <c r="H1" s="2">
-        <v>1.047E-3</v>
-      </c>
-      <c r="I1" s="2">
-        <v>1.047E-3</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3">
-        <v>0.98799999999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -599,26 +585,9 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2">
-        <f>G1*(1-M2/M$1)+0.02006*(M2/M$1)</f>
-        <v>1.0854878542510122E-3</v>
-      </c>
-      <c r="H2" s="2">
-        <f>H1*(1-M2/M$1)</f>
-        <v>1.0448805668016195E-3</v>
-      </c>
-      <c r="I2" s="2">
-        <f>I1*(1-M2/M$1)</f>
-        <v>1.0448805668016195E-3</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.0328233867134356E-3</v>
       </c>
@@ -632,26 +601,9 @@
         <v>19</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G18" si="0">G2*(1-M3/M$1)+0.02006*(M3/M$1)</f>
-        <v>1.2007176850956417E-3</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H18" si="1">H2*(1-M3/M$1)</f>
-        <v>1.0385351382582897E-3</v>
-      </c>
-      <c r="I3" s="2">
-        <f t="shared" ref="I3:I18" si="2">I2*(1-M3/M$1)</f>
-        <v>1.0385351382582897E-3</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1.055929364904879E-3</v>
       </c>
@@ -665,26 +617,9 @@
         <v>19</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>1.4870428214555256E-3</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0227679043778501E-3</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="2"/>
-        <v>1.0227679043778501E-3</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1.0789417966259119E-3</v>
       </c>
@@ -698,26 +633,9 @@
         <v>19</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="G5" s="2">
-        <f t="shared" si="0"/>
-        <v>1.7690209162714841E-3</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0072400515785912E-3</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="2"/>
-        <v>1.0072400515785912E-3</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1.1018610606071833E-3</v>
       </c>
@@ -731,26 +649,9 @@
         <v>19</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0467179671378078E-3</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="1"/>
-        <v>9.9194794553235746E-4</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="2"/>
-        <v>9.9194794553235746E-4</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.1246875340460206E-3</v>
       </c>
@@ -764,26 +665,9 @@
         <v>19</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>2.3201989696610193E-3</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="1"/>
-        <v>9.768880070880402E-4</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="2"/>
-        <v>9.768880070880402E-4</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1.1474215926126359E-3</v>
       </c>
@@ -797,26 +681,9 @@
         <v>19</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>2.5895279326722388E-3</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="1"/>
-        <v>9.6205671143386959E-4</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="2"/>
-        <v>9.6205671143386959E-4</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1.1700636104563092E-3</v>
       </c>
@@ -830,26 +697,9 @@
         <v>19</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="G9" s="2">
-        <f t="shared" si="0"/>
-        <v>2.8547678932085915E-3</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="1"/>
-        <v>9.4745058727242423E-4</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="2"/>
-        <v>9.4745058727242423E-4</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1.1926139602115467E-3</v>
       </c>
@@ -863,26 +713,9 @@
         <v>19</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1159809312671658E-3</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="1"/>
-        <v>9.3306621600816673E-4</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="2"/>
-        <v>9.3306621600816673E-4</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1.2150730130042124E-3</v>
       </c>
@@ -896,26 +729,9 @@
         <v>19</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>3.373228184334972E-3</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="1"/>
-        <v>9.1890023094731395E-4</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="2"/>
-        <v>9.1890023094731395E-4</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1.2374411384576366E-3</v>
       </c>
@@ -929,26 +745,9 @@
         <v>19</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>3.6265698616983074E-3</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="1"/>
-        <v>9.0494931650985473E-4</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="2"/>
-        <v>9.0494931650985473E-4</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1.2597187046986986E-3</v>
       </c>
@@ -962,26 +761,9 @@
         <v>19</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>3.8760652585348716E-3</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="1"/>
-        <v>8.9121020745353105E-4</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="2"/>
-        <v>8.9121020745353105E-4</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.2819060783638859E-3</v>
       </c>
@@ -994,26 +776,9 @@
       <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>4.1217727697919334E-3</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="1"/>
-        <v>8.776796881096009E-4</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="2"/>
-        <v>8.776796881096009E-4</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.3040036246053275E-3</v>
       </c>
@@ -1026,26 +791,9 @@
       <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="2">
-        <f t="shared" si="0"/>
-        <v>4.3637499038537966E-3</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="1"/>
-        <v>8.6435459163020415E-4</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="2"/>
-        <v>8.6435459163020415E-4</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.3260117070968038E-3</v>
       </c>
@@ -1060,28 +808,9 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="2">
-        <f t="shared" si="0"/>
-        <v>4.6020532960017648E-3</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="1"/>
-        <v>8.512317992471545E-4</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="2"/>
-        <v>8.512317992471545E-4</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.3479306880397315E-3</v>
       </c>
@@ -1096,28 +825,9 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="2">
-        <f t="shared" si="0"/>
-        <v>4.8367387216697536E-3</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="1"/>
-        <v>8.3830823954198516E-4</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="2"/>
-        <v>8.3830823954198516E-4</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.3697609281691251E-3</v>
       </c>
@@ -1132,28 +842,9 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="2">
-        <f t="shared" si="0"/>
-        <v>5.067861109498654E-3</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="1"/>
-        <v>8.2558088772707644E-4</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="2"/>
-        <v>8.2558088772707644E-4</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.3915027867595334E-3</v>
       </c>
@@ -1169,16 +860,8 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.4131566216309521E-3</v>
       </c>
@@ -1194,16 +877,8 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.4347227891547132E-3</v>
       </c>
@@ -1219,16 +894,8 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.4562016442593499E-3</v>
       </c>
@@ -1244,16 +911,8 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.4775935404364375E-3</v>
       </c>
@@ -1269,16 +928,8 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.4988988297464114E-3</v>
       </c>
@@ -1294,16 +945,8 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1.5201178628243609E-3</v>
       </c>
@@ -1319,16 +962,8 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1.5412509888858006E-3</v>
       </c>
@@ -1344,16 +979,8 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1.5622985557324166E-3</v>
       </c>
@@ -1369,16 +996,8 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1.5832609097577914E-3</v>
       </c>
@@ -1394,16 +1013,8 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1.6041383959531038E-3</v>
       </c>
@@ -1419,16 +1030,8 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1.6249313579128077E-3</v>
       </c>
@@ -1444,16 +1047,8 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1.6456401378402861E-3</v>
       </c>
@@ -1469,16 +1064,8 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.6662650765534833E-3</v>
       </c>
@@ -1494,16 +1081,8 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1.6868065134905135E-3</v>
       </c>
@@ -1519,16 +1098,8 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1.7072647867152481E-3</v>
       </c>
@@ -1544,16 +1115,8 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1.7276402329228786E-3</v>
       </c>
@@ -1569,16 +1132,8 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1.7479331874454579E-3</v>
       </c>
@@ -1594,16 +1149,8 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1.7681439842574195E-3</v>
       </c>
@@ -1619,16 +1166,8 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1.7882729559810734E-3</v>
       </c>
@@ -1644,16 +1183,8 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1.8083204338920811E-3</v>
       </c>
@@ -1669,16 +1200,8 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1.8282867479249066E-3</v>
       </c>
@@ -1694,16 +1217,8 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1.8481722266782468E-3</v>
       </c>
@@ -1719,16 +1234,8 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1.8679771974204401E-3</v>
       </c>
@@ -1744,16 +1251,8 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1.887701986094851E-3</v>
       </c>
@@ -1769,16 +1268,8 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.907346917325236E-3</v>
       </c>
@@ -1794,16 +1285,8 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.9269123144210851E-3</v>
       </c>
@@ -1819,16 +1302,8 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1.946398499382943E-3</v>
       </c>
@@ -1844,16 +1319,8 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1.9658057929077084E-3</v>
       </c>
@@ -1869,16 +1336,8 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1.0854878542510122E-3</v>
       </c>
@@ -1894,16 +1353,8 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1.2007176850956417E-3</v>
       </c>
@@ -1919,16 +1370,8 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1.4870428214555256E-3</v>
       </c>
@@ -1944,16 +1387,8 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1.7690209162714841E-3</v>
       </c>
@@ -1969,16 +1404,8 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2.0467179671378078E-3</v>
       </c>
@@ -1994,16 +1421,8 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2.3201989696610193E-3</v>
       </c>
@@ -2019,16 +1438,8 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2.5895279326722388E-3</v>
       </c>
@@ -2044,16 +1455,8 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2.8547678932085915E-3</v>
       </c>
@@ -2069,16 +1472,8 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3.1159809312671658E-3</v>
       </c>
@@ -2094,16 +1489,8 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3.373228184334972E-3</v>
       </c>
@@ -2119,16 +1506,8 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3.6265698616983074E-3</v>
       </c>
@@ -2144,16 +1523,8 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3.8760652585348716E-3</v>
       </c>
@@ -2167,7 +1538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4.1217727697919334E-3</v>
       </c>
@@ -2181,7 +1552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4.3637499038537966E-3</v>
       </c>
@@ -2195,7 +1566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4.6020532960017648E-3</v>
       </c>
@@ -2209,7 +1580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4.8367387216697536E-3</v>
       </c>
@@ -2223,7 +1594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5.067861109498654E-3</v>
       </c>
@@ -2248,7 +1619,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,7 +1639,7 @@
   <dimension ref="A1:BI5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BJ15" sqref="BJ15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2463,184 +1834,184 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.998</v>
+        <v>0.01</v>
       </c>
       <c r="C2">
-        <v>1.002</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="D2">
-        <v>1.006</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="E2">
-        <v>1.01</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="F2">
-        <v>1.014</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="G2">
-        <v>1.018</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="H2">
-        <v>1.022</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="I2">
-        <v>1.026</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="J2">
-        <v>1.03</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="K2">
-        <v>1.034</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="L2">
-        <v>1.038</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="M2">
-        <v>1.042</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="N2">
-        <v>1.046</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="O2">
-        <v>1.05</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="P2">
-        <v>1.054</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="Q2">
-        <v>1.0580000000000001</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="R2">
-        <v>1.0620000000000001</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="S2">
-        <v>1.0660000000000001</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="T2">
-        <v>1.07</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="U2">
-        <v>1.0740000000000001</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="V2">
-        <v>1.0780000000000001</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="W2">
-        <v>1.0820000000000001</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="X2">
-        <v>1.0860000000000001</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="Y2">
-        <v>1.0900000000000001</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="Z2">
-        <v>1.0940000000000001</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="AA2">
-        <v>1.0980000000000001</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="AB2">
-        <v>1.1020000000000001</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="AC2">
-        <v>1.1059999999999999</v>
+        <v>3.9999999999997815E-3</v>
       </c>
       <c r="AD2">
-        <v>1.1099999999999999</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="AE2">
-        <v>1.1139999999999999</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="AF2">
-        <v>1.1179999999999999</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="AG2">
-        <v>1.1219999999999999</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="AH2">
-        <v>1.1259999999999999</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="AI2">
-        <v>1.1299999999999999</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="AJ2">
-        <v>1.1339999999999999</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="AK2">
-        <v>1.1379999999999999</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="AL2">
-        <v>1.1419999999999999</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="AM2">
-        <v>1.1459999999999999</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="AN2">
-        <v>1.1499999999999999</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="AO2">
-        <v>1.1539999999999999</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="AP2">
-        <v>1.1579999999999999</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="AQ2">
-        <v>1.1619999999999999</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="AR2">
-        <v>1.1659999999999999</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="AS2">
-        <v>1.17</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="AT2">
-        <v>0.99</v>
+        <v>2E-3</v>
       </c>
       <c r="AU2">
-        <v>0.996</v>
+        <v>6.0000000000000053E-3</v>
       </c>
       <c r="AV2">
-        <v>1.0109999999999999</v>
+        <v>1.4999999999999902E-2</v>
       </c>
       <c r="AW2">
-        <v>1.026</v>
+        <v>1.5000000000000124E-2</v>
       </c>
       <c r="AX2">
-        <v>1.0409999999999999</v>
+        <v>1.4999999999999902E-2</v>
       </c>
       <c r="AY2">
-        <v>1.056</v>
+        <v>1.5000000000000124E-2</v>
       </c>
       <c r="AZ2">
-        <v>1.071</v>
+        <v>1.4999999999999902E-2</v>
       </c>
       <c r="BA2">
-        <v>1.0860000000000001</v>
+        <v>1.5000000000000124E-2</v>
       </c>
       <c r="BB2">
-        <v>1.101</v>
+        <v>1.4999999999999902E-2</v>
       </c>
       <c r="BC2">
-        <v>1.1160000000000001</v>
+        <v>1.5000000000000124E-2</v>
       </c>
       <c r="BD2">
-        <v>1.131</v>
+        <v>1.4999999999999902E-2</v>
       </c>
       <c r="BE2">
-        <v>1.1459999999999999</v>
+        <v>1.4999999999999902E-2</v>
       </c>
       <c r="BF2">
-        <v>1.161</v>
+        <v>1.5000000000000124E-2</v>
       </c>
       <c r="BG2">
-        <v>1.1759999999999999</v>
+        <v>1.4999999999999902E-2</v>
       </c>
       <c r="BH2">
-        <v>1.1910000000000001</v>
+        <v>1.5000000000000124E-2</v>
       </c>
       <c r="BI2">
-        <v>1.206</v>
+        <v>1.4999999999999902E-2</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
@@ -3231,8 +2602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3250,7 +2621,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>16600</v>
+        <v>15.593</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3258,7 +2629,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>-55.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3266,7 +2637,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>55.81</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/input/calorimetry/test_4.xlsx
+++ b/input/calorimetry/test_4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="input_stoich_coefficients" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="enthalpies" sheetId="7" r:id="rId7"/>
     <sheet name="setup" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="24">
   <si>
     <t>H</t>
   </si>
@@ -430,7 +430,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +519,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,15 +560,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="6" width="8.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
@@ -602,13 +604,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1.0328233867134399E-3</v>
+        <v>1.0561174089068824E-3</v>
       </c>
       <c r="B3" s="2">
-        <v>9.9194745037617404E-4</v>
+        <v>9.8789878542510112E-4</v>
       </c>
       <c r="C3">
-        <v>9.9194745037617404E-4</v>
+        <v>9.8789878542510112E-4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -618,13 +620,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>1.0559293649048799E-3</v>
+        <v>1.0791290793161661E-3</v>
       </c>
       <c r="B4" s="2">
-        <v>9.8793146879570391E-4</v>
+        <v>9.8389919520070791E-4</v>
       </c>
       <c r="C4">
-        <v>9.8793146879570391E-4</v>
+        <v>9.8389919520070791E-4</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -634,13 +636,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>1.0789417966259099E-3</v>
+        <v>1.1020475850679224E-3</v>
       </c>
       <c r="B5" s="2">
-        <v>9.8393174624997193E-4</v>
+        <v>9.7991579764928802E-4</v>
       </c>
       <c r="C5">
-        <v>9.8393174624997193E-4</v>
+        <v>9.7991579764928802E-4</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -650,13 +652,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>1.1018610606071801E-3</v>
+        <v>1.1248733033469994E-3</v>
       </c>
       <c r="B6" s="2">
-        <v>9.7994821691292796E-4</v>
+        <v>9.7594852721346096E-4</v>
       </c>
       <c r="C6">
-        <v>9.7994821691292796E-4</v>
+        <v>9.7594852721346096E-4</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -666,13 +668,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>1.1246875340460199E-3</v>
+        <v>1.1476066098111814E-3</v>
       </c>
       <c r="B7" s="2">
-        <v>9.7598081522502105E-4</v>
+        <v>9.7199731860126066E-4</v>
       </c>
       <c r="C7">
-        <v>9.7598081522502105E-4</v>
+        <v>9.7199731860126066E-4</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -682,13 +684,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>1.14742159261264E-3</v>
+        <v>1.1702478785973708E-3</v>
       </c>
       <c r="B8" s="2">
-        <v>9.7202947589212596E-4</v>
+        <v>9.6806210678506116E-4</v>
       </c>
       <c r="C8">
-        <v>9.7202947589212596E-4</v>
+        <v>9.6806210678506116E-4</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -698,13 +700,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>1.1700636104563099E-3</v>
+        <v>1.1927974823277457E-3</v>
       </c>
       <c r="B9" s="2">
-        <v>9.6809413388446598E-4</v>
+        <v>9.6414282700050624E-4</v>
       </c>
       <c r="C9">
-        <v>9.6809413388446598E-4</v>
+        <v>9.6414282700050624E-4</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -714,13 +716,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>1.1926139602115499E-3</v>
+        <v>1.2152557921158923E-3</v>
       </c>
       <c r="B10" s="2">
-        <v>9.64174724435541E-4</v>
+        <v>9.6023941474544339E-4</v>
       </c>
       <c r="C10">
-        <v>9.64174724435541E-4</v>
+        <v>9.6023941474544339E-4</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -730,13 +732,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>1.21507301300421E-3</v>
+        <v>1.2376231775729129E-3</v>
       </c>
       <c r="B11" s="2">
-        <v>9.6027118304106501E-4</v>
+        <v>9.5635180577886261E-4</v>
       </c>
       <c r="C11">
-        <v>9.6027118304106501E-4</v>
+        <v>9.5635180577886261E-4</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
@@ -746,13 +748,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>1.23744113845764E-3</v>
+        <v>1.2599000068135083E-3</v>
       </c>
       <c r="B12" s="2">
-        <v>9.5638344545790298E-4</v>
+        <v>9.5247993611983887E-4</v>
       </c>
       <c r="C12">
-        <v>9.5638344545790298E-4</v>
+        <v>9.5247993611983887E-4</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
@@ -761,14 +763,14 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>1.2597187046987E-3</v>
-      </c>
-      <c r="B13" s="2">
-        <v>9.5251144770301199E-4</v>
+      <c r="A13">
+        <v>1.2820866464620365E-3</v>
+      </c>
+      <c r="B13">
+        <v>9.4862374204647917E-4</v>
       </c>
       <c r="C13">
-        <v>9.5251144770301199E-4</v>
+        <v>9.4862374204647917E-4</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
@@ -778,13 +780,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1.28190607836389E-3</v>
+        <v>1.3041834616585462E-3</v>
       </c>
       <c r="B14">
-        <v>9.4865512605239299E-4</v>
+        <v>9.4478316009487392E-4</v>
       </c>
       <c r="C14">
-        <v>9.4865512605239299E-4</v>
+        <v>9.4478316009487392E-4</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
@@ -793,13 +795,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1.3040036246053301E-3</v>
+        <v>1.3261908160647868E-3</v>
       </c>
       <c r="B15">
-        <v>9.4481441704003498E-4</v>
+        <v>9.4095812705805254E-4</v>
       </c>
       <c r="C15">
-        <v>9.4481441704003498E-4</v>
+        <v>9.4095812705805254E-4</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -808,13 +810,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1.3260117070967999E-3</v>
+        <v>1.3481090718701924E-3</v>
       </c>
       <c r="B16">
-        <v>9.4098925745687704E-4</v>
+        <v>9.3714857998494295E-4</v>
       </c>
       <c r="C16">
-        <v>9.4098925745687704E-4</v>
+        <v>9.3714857998494295E-4</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
@@ -825,13 +827,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1.34793068803973E-3</v>
+        <v>1.3699385897978434E-3</v>
       </c>
       <c r="B17">
-        <v>9.37179584349764E-4</v>
+        <v>9.3335445617933591E-4</v>
       </c>
       <c r="C17">
-        <v>9.37179584349764E-4</v>
+        <v>9.3335445617933591E-4</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -842,13 +844,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1.3697609281691299E-3</v>
+        <v>1.3916797291104025E-3</v>
       </c>
       <c r="B18">
-        <v>9.33385335020413E-4</v>
+        <v>9.2957569319885268E-4</v>
       </c>
       <c r="C18">
-        <v>9.33385335020413E-4</v>
+        <v>9.2957569319885268E-4</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
@@ -859,13 +861,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1.3915027867595299E-3</v>
+        <v>1.4133328476160284E-3</v>
       </c>
       <c r="B19">
-        <v>9.2960644702437902E-4</v>
+        <v>9.2581222885391805E-4</v>
       </c>
       <c r="C19">
-        <v>9.2960644702437902E-4</v>
+        <v>9.2581222885391805E-4</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
@@ -876,13 +878,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1.4131566216309501E-3</v>
+        <v>1.434898301674263E-3</v>
       </c>
       <c r="B20">
-        <v>9.2584285817002903E-4</v>
+        <v>9.2206400120673621E-4</v>
       </c>
       <c r="C20">
-        <v>9.2584285817002903E-4</v>
+        <v>9.2206400120673621E-4</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>11</v>
@@ -893,13 +895,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1.4347227891547099E-3</v>
+        <v>1.4563764462018974E-3</v>
       </c>
       <c r="B21">
-        <v>9.2209450651751905E-4</v>
+        <v>9.1833094857027167E-4</v>
       </c>
       <c r="C21">
-        <v>9.2209450651751905E-4</v>
+        <v>9.1833094857027167E-4</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
@@ -910,13 +912,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1.4562016442593499E-3</v>
+        <v>1.4777676346788126E-3</v>
       </c>
       <c r="B22">
-        <v>9.1836133037777096E-4</v>
+        <v>9.1461300950723408E-4</v>
       </c>
       <c r="C22">
-        <v>9.1836133037777096E-4</v>
+        <v>9.1461300950723408E-4</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>11</v>
@@ -927,13 +929,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1.4775935404364401E-3</v>
+        <v>1.4990722191537971E-3</v>
       </c>
       <c r="B23">
-        <v>9.1464326831146498E-4</v>
+        <v>9.1091012282906714E-4</v>
       </c>
       <c r="C23">
-        <v>9.1464326831146498E-4</v>
+        <v>9.1091012282906714E-4</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>11</v>
@@ -944,13 +946,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1.4988988297464101E-3</v>
+        <v>1.5202905502503402E-3</v>
       </c>
       <c r="B24">
-        <v>9.1094025912801695E-4</v>
+        <v>9.0722222759494133E-4</v>
       </c>
       <c r="C24">
-        <v>9.1094025912801695E-4</v>
+        <v>9.0722222759494133E-4</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>11</v>
@@ -961,13 +963,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1.52011786282436E-3</v>
+        <v>1.5414229771724035E-3</v>
       </c>
       <c r="B25">
-        <v>9.0725224188458397E-4</v>
+        <v>9.035492631107512E-4</v>
       </c>
       <c r="C25">
-        <v>9.0725224188458397E-4</v>
+        <v>9.035492631107512E-4</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
@@ -978,13 +980,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1.5412509888857999E-3</v>
+        <v>1.562469847710167E-3</v>
       </c>
       <c r="B26">
-        <v>9.0357915588505102E-4</v>
+        <v>8.998911689281165E-4</v>
       </c>
       <c r="C26">
-        <v>9.0357915588505102E-4</v>
+        <v>8.998911689281165E-4</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>11</v>
@@ -995,13 +997,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1.5622985557324201E-3</v>
+        <v>1.5834315082457532E-3</v>
       </c>
       <c r="B27">
-        <v>8.9992094067903902E-4</v>
+        <v>8.9624788484338723E-4</v>
       </c>
       <c r="C27">
-        <v>8.9992094067903902E-4</v>
+        <v>8.9624788484338723E-4</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>11</v>
@@ -1012,13 +1014,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1.5832609097577899E-3</v>
+        <v>1.6043083037589282E-3</v>
       </c>
       <c r="B28">
-        <v>8.9627753606090499E-4</v>
+        <v>8.9261935089665287E-4</v>
       </c>
       <c r="C28">
-        <v>8.9627753606090499E-4</v>
+        <v>8.9261935089665287E-4</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
@@ -1029,13 +1031,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1.6041383959530999E-3</v>
+        <v>1.6251005778327786E-3</v>
       </c>
       <c r="B29">
-        <v>8.9264888206875496E-4</v>
+        <v>8.8900550737075544E-4</v>
       </c>
       <c r="C29">
-        <v>8.9264888206875496E-4</v>
+        <v>8.8900550737075544E-4</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>11</v>
@@ -1046,13 +1048,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1.6249313579128101E-3</v>
+        <v>1.6458086726593663E-3</v>
       </c>
       <c r="B30">
-        <v>8.8903491898345696E-4</v>
+        <v>8.8540629479030701E-4</v>
       </c>
       <c r="C30">
-        <v>8.8903491898345696E-4</v>
+        <v>8.8540629479030701E-4</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>11</v>
@@ -1063,13 +1065,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1.64564013784029E-3</v>
+        <v>1.6664329290453606E-3</v>
       </c>
       <c r="B31">
-        <v>8.8543558732765305E-4</v>
+        <v>8.8182165392071063E-4</v>
       </c>
       <c r="C31">
-        <v>8.8543558732765305E-4</v>
+        <v>8.8182165392071063E-4</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>11</v>
@@ -1080,13 +1082,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1.66626507655348E-3</v>
+        <v>1.6869736864176465E-3</v>
       </c>
       <c r="B32">
-        <v>8.81850827864788E-4</v>
+        <v>8.7825152576718546E-4</v>
       </c>
       <c r="C32">
-        <v>8.81850827864788E-4</v>
+        <v>8.7825152576718546E-4</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>11</v>
@@ -1097,13 +1099,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1.68680651349051E-3</v>
+        <v>1.707431282828911E-3</v>
       </c>
       <c r="B33">
-        <v>8.7828058159812898E-4</v>
+        <v>8.7469585157379606E-4</v>
       </c>
       <c r="C33">
-        <v>8.7828058159812898E-4</v>
+        <v>8.7469585157379606E-4</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>11</v>
@@ -1114,13 +1116,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1.70726478671525E-3</v>
+        <v>1.7278060549632069E-3</v>
       </c>
       <c r="B34">
-        <v>8.7472478976979699E-4</v>
+        <v>8.7115457282248515E-4</v>
       </c>
       <c r="C34">
-        <v>8.7472478976979699E-4</v>
+        <v>8.7115457282248515E-4</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>11</v>
@@ -1131,13 +1133,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1.7276402329228801E-3</v>
+        <v>1.7480983381414933E-3</v>
       </c>
       <c r="B35">
-        <v>8.7118339385979795E-4</v>
+        <v>8.6762763123211068E-4</v>
       </c>
       <c r="C35">
-        <v>8.7118339385979795E-4</v>
+        <v>8.6762763123211068E-4</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
@@ -1148,13 +1150,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1.7479331874454601E-3</v>
+        <v>1.7683084663271552E-3</v>
       </c>
       <c r="B36">
-        <v>8.67656335585061E-4</v>
+        <v>8.6411496875748669E-4</v>
       </c>
       <c r="C36">
-        <v>8.67656335585061E-4</v>
+        <v>8.6411496875748669E-4</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
@@ -1165,13 +1167,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1.7681439842574199E-3</v>
+        <v>1.7884367721314985E-3</v>
       </c>
       <c r="B37">
-        <v>8.6414355689848202E-4</v>
+        <v>8.6061652758842805E-4</v>
       </c>
       <c r="C37">
-        <v>8.6414355689848202E-4</v>
+        <v>8.6061652758842805E-4</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>11</v>
@@ -1182,13 +1184,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1.78827295598107E-3</v>
+        <v>1.808483586819225E-3</v>
       </c>
       <c r="B38">
-        <v>8.6064499998796205E-4</v>
+        <v>8.5713225014879873E-4</v>
       </c>
       <c r="C38">
-        <v>8.6064499998796205E-4</v>
+        <v>8.5713225014879873E-4</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>11</v>
@@ -1199,13 +1201,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1.80832043389208E-3</v>
+        <v>1.8284492403138838E-3</v>
       </c>
       <c r="B39">
-        <v>8.5716060727545999E-4</v>
+        <v>8.5366207909556467E-4</v>
       </c>
       <c r="C39">
-        <v>8.5716060727545999E-4</v>
+        <v>8.5366207909556467E-4</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>11</v>
@@ -1216,13 +1218,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1.8282867479249101E-3</v>
+        <v>1.8483340612033012E-3</v>
       </c>
       <c r="B40">
-        <v>8.5369032141604498E-4</v>
+        <v>8.5020595731784981E-4</v>
       </c>
       <c r="C40">
-        <v>8.5369032141604498E-4</v>
+        <v>8.5020595731784981E-4</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>11</v>
@@ -1233,13 +1235,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1.8481722266782501E-3</v>
+        <v>1.8681383767449882E-3</v>
       </c>
       <c r="B41">
-        <v>8.5023408529695196E-4</v>
+        <v>8.4676382793599618E-4</v>
       </c>
       <c r="C41">
-        <v>8.5023408529695196E-4</v>
+        <v>8.4676382793599618E-4</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>11</v>
@@ -1250,13 +1252,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1.8679771974204401E-3</v>
+        <v>1.8878625128715264E-3</v>
       </c>
       <c r="B42">
-        <v>8.4679184203664002E-4</v>
+        <v>8.4333563430062772E-4</v>
       </c>
       <c r="C42">
-        <v>8.4679184203664002E-4</v>
+        <v>8.4333563430062772E-4</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>11</v>
@@ -1267,13 +1269,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1.88770198609485E-3</v>
+        <v>1.907506794195933E-3</v>
       </c>
       <c r="B43">
-        <v>8.4336353498386002E-4</v>
+        <v>8.3992131999171822E-4</v>
       </c>
       <c r="C43">
-        <v>8.4336353498386002E-4</v>
+        <v>8.3992131999171822E-4</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>11</v>
@@ -1284,13 +1286,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1.9073469173252399E-3</v>
+        <v>1.9270715440170018E-3</v>
       </c>
       <c r="B44">
-        <v>8.39949107716719E-4</v>
+        <v>8.3652082881766261E-4</v>
       </c>
       <c r="C44">
-        <v>8.39949107716719E-4</v>
+        <v>8.3652082881766261E-4</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>11</v>
@@ -1301,13 +1303,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1.9269123144210901E-3</v>
+        <v>1.9465570843246252E-3</v>
       </c>
       <c r="B45">
-        <v>8.36548504041753E-4</v>
+        <v>8.3313410481435221E-4</v>
       </c>
       <c r="C45">
-        <v>8.36548504041753E-4</v>
+        <v>8.3313410481435221E-4</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>11</v>
@@ -1318,13 +1320,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1.94639849938294E-3</v>
+        <v>1.9659637358050925E-3</v>
       </c>
       <c r="B46">
-        <v>8.3316166799300001E-4</v>
+        <v>8.2976109224425362E-4</v>
       </c>
       <c r="C46">
-        <v>8.3316166799300001E-4</v>
+        <v>8.2976109224425362E-4</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>11</v>
@@ -1335,16 +1337,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1.9658057929077101E-3</v>
+        <v>1.047E-3</v>
       </c>
       <c r="B47">
-        <v>8.2978854383108599E-4</v>
+        <v>1.047E-3</v>
       </c>
       <c r="C47">
-        <v>8.2978854383108599E-4</v>
+        <v>9.9999999999999998E-17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1352,10 +1354,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1.08548785425101E-3</v>
+        <v>1.2009514170040485E-3</v>
       </c>
       <c r="B48">
-        <v>1.0448805668016199E-3</v>
+        <v>1.03853513825829E-3</v>
       </c>
       <c r="C48">
         <v>9.9999999999999998E-17</v>
@@ -1369,10 +1371,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1.20071768509564E-3</v>
+        <v>1.4872730048025701E-3</v>
       </c>
       <c r="B49">
-        <v>1.03853513825829E-3</v>
+        <v>1.0227679043778499E-3</v>
       </c>
       <c r="C49">
         <v>9.9999999999999998E-17</v>
@@ -1386,10 +1388,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1.48704282145553E-3</v>
+        <v>1.7692476049320856E-3</v>
       </c>
       <c r="B50">
-        <v>1.0227679043778499E-3</v>
+        <v>1.0072400515785901E-3</v>
       </c>
       <c r="C50">
         <v>9.9999999999999998E-17</v>
@@ -1403,10 +1405,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1.76902091627148E-3</v>
+        <v>2.0469412141689465E-3</v>
       </c>
       <c r="B51">
-        <v>1.0072400515785901E-3</v>
+        <v>9.9194794553235811E-4</v>
       </c>
       <c r="C51">
         <v>9.9999999999999998E-17</v>
@@ -1420,10 +1422,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>2.0467179671378099E-3</v>
+        <v>2.320418827314155E-3</v>
       </c>
       <c r="B52">
-        <v>9.9194794553235811E-4</v>
+        <v>9.7688800708803998E-4</v>
       </c>
       <c r="C52">
         <v>9.9999999999999998E-17</v>
@@ -1437,10 +1439,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2.3201989696610202E-3</v>
+        <v>2.5897444524055394E-3</v>
       </c>
       <c r="B53">
-        <v>9.7688800708803998E-4</v>
+        <v>9.6205671143387002E-4</v>
       </c>
       <c r="C53">
         <v>9.9999999999999998E-17</v>
@@ -1454,10 +1456,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2.5895279326722401E-3</v>
+        <v>2.8549811256989776E-3</v>
       </c>
       <c r="B54">
-        <v>9.6205671143387002E-4</v>
+        <v>9.4745058727242401E-4</v>
       </c>
       <c r="C54">
         <v>9.9999999999999998E-17</v>
@@ -1471,10 +1473,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>2.8547678932085898E-3</v>
+        <v>3.1161909264221712E-3</v>
       </c>
       <c r="B55">
-        <v>9.4745058727242401E-4</v>
+        <v>9.3306621600816695E-4</v>
       </c>
       <c r="C55">
         <v>9.9999999999999998E-17</v>
@@ -1488,10 +1490,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>3.1159809312671701E-3</v>
+        <v>3.3734349913044259E-3</v>
       </c>
       <c r="B56">
-        <v>9.3306621600816695E-4</v>
+        <v>9.1890023094731395E-4</v>
       </c>
       <c r="C56">
         <v>9.9999999999999998E-17</v>
@@ -1505,10 +1507,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>3.3732281843349698E-3</v>
+        <v>3.6267735288858364E-3</v>
       </c>
       <c r="B57">
-        <v>9.1890023094731395E-4</v>
+        <v>9.0494931650985505E-4</v>
       </c>
       <c r="C57">
         <v>9.9999999999999998E-17</v>
@@ -1522,10 +1524,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>3.62656986169831E-3</v>
+        <v>3.8762658336092297E-3</v>
       </c>
       <c r="B58">
-        <v>9.0494931650985505E-4</v>
+        <v>8.9121020745353105E-4</v>
       </c>
       <c r="C58">
         <v>9.9999999999999998E-17</v>
@@ -1539,10 +1541,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>3.8760652585348699E-3</v>
+        <v>4.1219702996981586E-3</v>
       </c>
       <c r="B59">
-        <v>8.9121020745353105E-4</v>
+        <v>8.7767968810960101E-4</v>
       </c>
       <c r="C59">
         <v>9.9999999999999998E-17</v>
@@ -1553,10 +1555,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>4.12177276979193E-3</v>
+        <v>4.3639444348241982E-3</v>
       </c>
       <c r="B60">
-        <v>8.7767968810960101E-4</v>
+        <v>8.6435459163020404E-4</v>
       </c>
       <c r="C60">
         <v>9.9999999999999998E-17</v>
@@ -1567,10 +1569,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>4.3637499038538001E-3</v>
+        <v>4.6022448735667451E-3</v>
       </c>
       <c r="B61">
-        <v>8.6435459163020404E-4</v>
+        <v>8.5123179924715396E-4</v>
       </c>
       <c r="C61">
         <v>9.9999999999999998E-17</v>
@@ -1581,10 +1583,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>4.60205329600177E-3</v>
+        <v>4.8369273906684641E-3</v>
       </c>
       <c r="B62">
-        <v>8.5123179924715396E-4</v>
+        <v>8.3830823954198495E-4</v>
       </c>
       <c r="C62">
         <v>9.9999999999999998E-17</v>
@@ -1595,29 +1597,15 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>4.8367387216697501E-3</v>
+        <v>5.0680469140894895E-3</v>
       </c>
       <c r="B63">
-        <v>8.3830823954198495E-4</v>
+        <v>8.2558088772707601E-4</v>
       </c>
       <c r="C63">
         <v>9.9999999999999998E-17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>5.0678611094986496E-3</v>
-      </c>
-      <c r="B64">
-        <v>8.2558088772707601E-4</v>
-      </c>
-      <c r="C64">
-        <v>9.9999999999999998E-17</v>
-      </c>
-      <c r="D64" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1653,18 +1641,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI5"/>
+  <dimension ref="A1:BH5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BA13" sqref="BA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="60" width="8.5703125" customWidth="1"/>
+    <col min="62" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1674,187 +1663,184 @@
       <c r="C1">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="3">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="3">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="3">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="3">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="3">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="3">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="3">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="3">
         <v>10</v>
       </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
+      <c r="L1" s="3">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="3">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="3">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="3">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="3">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="3">
         <v>17</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="3">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="3">
         <v>19</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="3">
         <v>20</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="3">
         <v>21</v>
       </c>
-      <c r="W1">
+      <c r="W1" s="3">
         <v>22</v>
       </c>
-      <c r="X1">
+      <c r="X1" s="3">
         <v>23</v>
       </c>
-      <c r="Y1">
+      <c r="Y1" s="3">
         <v>24</v>
       </c>
-      <c r="Z1">
+      <c r="Z1" s="3">
         <v>25</v>
       </c>
-      <c r="AA1">
+      <c r="AA1" s="3">
         <v>26</v>
       </c>
-      <c r="AB1">
+      <c r="AB1" s="3">
         <v>27</v>
       </c>
-      <c r="AC1">
+      <c r="AC1" s="3">
         <v>28</v>
       </c>
-      <c r="AD1">
+      <c r="AD1" s="3">
         <v>29</v>
       </c>
-      <c r="AE1">
+      <c r="AE1" s="3">
         <v>30</v>
       </c>
-      <c r="AF1">
+      <c r="AF1" s="3">
         <v>31</v>
       </c>
-      <c r="AG1">
+      <c r="AG1" s="3">
         <v>32</v>
       </c>
-      <c r="AH1">
+      <c r="AH1" s="3">
         <v>33</v>
       </c>
-      <c r="AI1">
+      <c r="AI1" s="3">
         <v>34</v>
       </c>
-      <c r="AJ1">
+      <c r="AJ1" s="3">
         <v>35</v>
       </c>
-      <c r="AK1">
+      <c r="AK1" s="3">
         <v>36</v>
       </c>
-      <c r="AL1">
+      <c r="AL1" s="3">
         <v>37</v>
       </c>
-      <c r="AM1">
+      <c r="AM1" s="3">
         <v>38</v>
       </c>
-      <c r="AN1">
+      <c r="AN1" s="3">
         <v>39</v>
       </c>
-      <c r="AO1">
+      <c r="AO1" s="3">
         <v>40</v>
       </c>
-      <c r="AP1">
+      <c r="AP1" s="3">
         <v>41</v>
       </c>
-      <c r="AQ1">
+      <c r="AQ1" s="3">
         <v>42</v>
       </c>
-      <c r="AR1">
+      <c r="AR1" s="3">
         <v>43</v>
       </c>
-      <c r="AS1">
+      <c r="AS1" s="3">
         <v>44</v>
       </c>
-      <c r="AT1">
+      <c r="AT1" s="3">
         <v>45</v>
       </c>
-      <c r="AU1">
+      <c r="AU1" s="3">
         <v>46</v>
       </c>
-      <c r="AV1">
+      <c r="AV1" s="3">
         <v>47</v>
       </c>
-      <c r="AW1">
+      <c r="AW1" s="3">
         <v>48</v>
       </c>
-      <c r="AX1">
+      <c r="AX1" s="3">
         <v>49</v>
       </c>
-      <c r="AY1">
+      <c r="AY1" s="3">
         <v>50</v>
       </c>
-      <c r="AZ1">
+      <c r="AZ1" s="3">
         <v>51</v>
       </c>
-      <c r="BA1">
+      <c r="BA1" s="3">
         <v>52</v>
       </c>
-      <c r="BB1">
+      <c r="BB1" s="3">
         <v>53</v>
       </c>
-      <c r="BC1">
+      <c r="BC1" s="3">
         <v>54</v>
       </c>
-      <c r="BD1">
+      <c r="BD1" s="3">
         <v>55</v>
       </c>
-      <c r="BE1">
+      <c r="BE1" s="3">
         <v>56</v>
       </c>
-      <c r="BF1">
+      <c r="BF1" s="3">
         <v>57</v>
       </c>
-      <c r="BG1">
+      <c r="BG1" s="3">
         <v>58</v>
       </c>
-      <c r="BH1">
+      <c r="BH1" s="3">
         <v>59</v>
       </c>
-      <c r="BI1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2">
-        <v>0.01</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C2">
         <v>4.0000000000000001E-3</v>
@@ -1932,10 +1918,10 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AB2">
-        <v>4.0000000000000001E-3</v>
+        <v>3.9999999999997798E-3</v>
       </c>
       <c r="AC2">
-        <v>3.9999999999997798E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AD2">
         <v>4.0000000000000001E-3</v>
@@ -1983,243 +1969,237 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AS2">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="AT2">
-        <v>2E-3</v>
+        <v>6.0000000000000097E-3</v>
       </c>
       <c r="AU2">
-        <v>6.0000000000000097E-3</v>
+        <v>1.4999999999999901E-2</v>
       </c>
       <c r="AV2">
+        <v>1.50000000000001E-2</v>
+      </c>
+      <c r="AW2">
         <v>1.4999999999999901E-2</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <v>1.50000000000001E-2</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <v>1.4999999999999901E-2</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>1.50000000000001E-2</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>1.4999999999999901E-2</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>1.50000000000001E-2</v>
       </c>
-      <c r="BB2">
+      <c r="BC2">
         <v>1.4999999999999901E-2</v>
-      </c>
-      <c r="BC2">
-        <v>1.50000000000001E-2</v>
       </c>
       <c r="BD2">
         <v>1.4999999999999901E-2</v>
       </c>
       <c r="BE2">
+        <v>1.50000000000001E-2</v>
+      </c>
+      <c r="BF2">
         <v>1.4999999999999901E-2</v>
       </c>
-      <c r="BF2">
+      <c r="BG2">
         <v>1.50000000000001E-2</v>
       </c>
-      <c r="BG2">
+      <c r="BH2">
         <v>1.4999999999999901E-2</v>
       </c>
-      <c r="BH2">
-        <v>1.50000000000001E-2</v>
-      </c>
-      <c r="BI2">
-        <v>1.4999999999999901E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3">
-        <v>3.19E-4</v>
+        <v>3.28E-4</v>
       </c>
       <c r="C3">
-        <v>3.28E-4</v>
+        <v>3.3799999999999998E-4</v>
       </c>
       <c r="D3">
-        <v>3.3799999999999998E-4</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="E3">
+        <v>3.4200000000000002E-4</v>
+      </c>
+      <c r="F3">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="F3">
-        <v>3.4200000000000002E-4</v>
-      </c>
       <c r="G3">
-        <v>3.4000000000000002E-4</v>
+        <v>3.4400000000000001E-4</v>
       </c>
       <c r="H3">
-        <v>3.4400000000000001E-4</v>
+        <v>3.4099999999999999E-4</v>
       </c>
       <c r="I3">
         <v>3.4099999999999999E-4</v>
       </c>
       <c r="J3">
-        <v>3.4099999999999999E-4</v>
+        <v>3.4400000000000001E-4</v>
       </c>
       <c r="K3">
-        <v>3.4400000000000001E-4</v>
+        <v>3.4200000000000002E-4</v>
       </c>
       <c r="L3">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="M3">
         <v>3.4200000000000002E-4</v>
-      </c>
-      <c r="M3">
-        <v>3.4000000000000002E-4</v>
       </c>
       <c r="N3">
         <v>3.4200000000000002E-4</v>
       </c>
       <c r="O3">
-        <v>3.4200000000000002E-4</v>
+        <v>3.4099999999999999E-4</v>
       </c>
       <c r="P3">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="Q3">
+        <v>3.4400000000000001E-4</v>
+      </c>
+      <c r="R3">
         <v>3.4099999999999999E-4</v>
       </c>
-      <c r="Q3">
-        <v>3.4000000000000002E-4</v>
-      </c>
-      <c r="R3">
-        <v>3.4400000000000001E-4</v>
-      </c>
       <c r="S3">
-        <v>3.4099999999999999E-4</v>
+        <v>3.3500000000000001E-4</v>
       </c>
       <c r="T3">
-        <v>3.3500000000000001E-4</v>
+        <v>3.2899999999999997E-4</v>
       </c>
       <c r="U3">
-        <v>3.2899999999999997E-4</v>
+        <v>3.2600000000000001E-4</v>
       </c>
       <c r="V3">
-        <v>3.2600000000000001E-4</v>
+        <v>3.1599999999999998E-4</v>
       </c>
       <c r="W3">
-        <v>3.1599999999999998E-4</v>
+        <v>3.1500000000000001E-4</v>
       </c>
       <c r="X3">
-        <v>3.1500000000000001E-4</v>
+        <v>3.0499999999999999E-4</v>
       </c>
       <c r="Y3">
-        <v>3.0499999999999999E-4</v>
+        <v>2.99E-4</v>
       </c>
       <c r="Z3">
-        <v>2.99E-4</v>
+        <v>2.8600000000000001E-4</v>
       </c>
       <c r="AA3">
-        <v>2.8600000000000001E-4</v>
+        <v>2.7300000000000002E-4</v>
       </c>
       <c r="AB3">
-        <v>2.7300000000000002E-4</v>
+        <v>2.5599999999999999E-4</v>
       </c>
       <c r="AC3">
-        <v>2.5599999999999999E-4</v>
+        <v>2.4499999999999999E-4</v>
       </c>
       <c r="AD3">
-        <v>2.4499999999999999E-4</v>
+        <v>2.24E-4</v>
       </c>
       <c r="AE3">
-        <v>2.24E-4</v>
+        <v>2.0599999999999999E-4</v>
       </c>
       <c r="AF3">
-        <v>2.0599999999999999E-4</v>
+        <v>1.8200000000000001E-4</v>
       </c>
       <c r="AG3">
-        <v>1.8200000000000001E-4</v>
+        <v>1.55E-4</v>
       </c>
       <c r="AH3">
-        <v>1.55E-4</v>
+        <v>1.3899999999999999E-4</v>
       </c>
       <c r="AI3">
-        <v>1.3899999999999999E-4</v>
+        <v>1.2400000000000001E-4</v>
       </c>
       <c r="AJ3">
-        <v>1.2400000000000001E-4</v>
+        <v>1.07E-4</v>
       </c>
       <c r="AK3">
+        <v>9.2E-5</v>
+      </c>
+      <c r="AL3">
+        <v>8.1000000000000004E-5</v>
+      </c>
+      <c r="AM3">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="AN3">
+        <v>6.2000000000000003E-5</v>
+      </c>
+      <c r="AO3">
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="AP3">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="AQ3">
+        <v>4.1999999999999998E-5</v>
+      </c>
+      <c r="AR3">
+        <v>3.4E-5</v>
+      </c>
+      <c r="AS3">
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="AT3">
+        <v>6.8800000000000003E-4</v>
+      </c>
+      <c r="AU3">
+        <v>2.5099999999999998E-4</v>
+      </c>
+      <c r="AV3">
+        <v>1.4899999999999999E-4</v>
+      </c>
+      <c r="AW3">
         <v>1.07E-4</v>
       </c>
-      <c r="AL3">
-        <v>9.2E-5</v>
-      </c>
-      <c r="AM3">
-        <v>8.1000000000000004E-5</v>
-      </c>
-      <c r="AN3">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="AO3">
-        <v>6.2000000000000003E-5</v>
-      </c>
-      <c r="AP3">
-        <v>5.5999999999999999E-5</v>
-      </c>
-      <c r="AQ3">
-        <v>4.5000000000000003E-5</v>
-      </c>
-      <c r="AR3">
-        <v>4.1999999999999998E-5</v>
-      </c>
-      <c r="AS3">
-        <v>3.4E-5</v>
-      </c>
-      <c r="AT3">
-        <v>6.2500000000000001E-4</v>
-      </c>
-      <c r="AU3">
-        <v>6.8800000000000003E-4</v>
-      </c>
-      <c r="AV3">
-        <v>2.5099999999999998E-4</v>
-      </c>
-      <c r="AW3">
-        <v>1.4899999999999999E-4</v>
-      </c>
       <c r="AX3">
-        <v>1.07E-4</v>
+        <v>8.5000000000000006E-5</v>
       </c>
       <c r="AY3">
-        <v>8.5000000000000006E-5</v>
+        <v>7.7999999999999999E-5</v>
       </c>
       <c r="AZ3">
-        <v>7.7999999999999999E-5</v>
+        <v>6.7000000000000002E-5</v>
       </c>
       <c r="BA3">
-        <v>6.7000000000000002E-5</v>
+        <v>5.8E-5</v>
       </c>
       <c r="BB3">
-        <v>5.8E-5</v>
+        <v>5.3999999999999998E-5</v>
       </c>
       <c r="BC3">
-        <v>5.3999999999999998E-5</v>
+        <v>5.3000000000000001E-5</v>
       </c>
       <c r="BD3">
         <v>5.3000000000000001E-5</v>
       </c>
       <c r="BE3">
-        <v>5.3000000000000001E-5</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="BF3">
-        <v>4.8000000000000001E-5</v>
+        <v>4.1E-5</v>
       </c>
       <c r="BG3">
-        <v>4.1E-5</v>
+        <v>3.8000000000000002E-5</v>
       </c>
       <c r="BH3">
         <v>3.8000000000000002E-5</v>
       </c>
-      <c r="BI3">
-        <v>3.8000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2400,11 +2380,8 @@
       <c r="BH4">
         <v>0</v>
       </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2583,9 +2560,6 @@
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="BH5">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="BI5">
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
@@ -2599,8 +2573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2630,7 +2604,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2672,7 +2646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
